--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madelinescomputer/Dropbox/MSI/Current Projects/Mapping Project/3 - Mapping Results/2016-09 Data Visualization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madelinescomputer/Dropbox/MSI/Current Projects/Mapping Project/3 - Mapping Results/2016-09 Data Visualization/For Microsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="1580" yWindow="1460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,9 +222,6 @@
     <t xml:space="preserve">Agriculture </t>
   </si>
   <si>
-    <t xml:space="preserve">The Alliance for Water Stewardship (AWS) mission is "to promote responsible use of freshwater that is socially and economically beneficial as well as environmentally sustainable." </t>
-  </si>
-  <si>
     <t xml:space="preserve">Unknown. Members are not listed by stakeholder affiliation. </t>
   </si>
   <si>
@@ -418,9 +415,6 @@
   </si>
   <si>
     <t>Industry (11), Civil Society (2), Other (1)</t>
-  </si>
-  <si>
-    <t>"To establish a multi-stakeholder and independently verified responsible mining assurance system that improves social and environmental performance."</t>
   </si>
   <si>
     <t xml:space="preserve">The mission of the International Seafood Sustainability Foundation is "to undertake and facilitate science-based initiatives for the long-term conservation and sustainable use of global tuna stocks, reducing bycatch and promoting tuna ecosystem health." </t>
@@ -511,9 +505,6 @@
     <t>Government (9), Industry (28), Civil Society (10)</t>
   </si>
   <si>
-    <t>The Wildlife Friendly Enterprise Network (WFEN) "works to ensure wildlife conservation through the promotion and certification of responsible production practices, tourism, enterprise development, education and branding....We advocate for the production of high quality goods and services that deliver measurable improvements for wildlife in wild places and on private farm and ranchlands in between."</t>
-  </si>
-  <si>
     <t>Industry (6), Civil Society (7)</t>
   </si>
   <si>
@@ -533,9 +524,6 @@
   </si>
   <si>
     <t>Government (3), Industry (5), Civil Society (7), Affected Populations (2)</t>
-  </si>
-  <si>
-    <t>The Equitable Origin mission is "to protect people and the environment by ensuring that energy development is conducted under the highest social and environmental standards...where the world’s energy needs are met through development activity that is transparent and accountable, creates benefits for all stakeholders, and ensures environmental stewardship and the health, safety, and prosperity of affected local communities."</t>
   </si>
   <si>
     <t>Extractive Industries Transparency Initiative (EITI)</t>
@@ -603,6 +591,18 @@
   <si>
     <t>Agriculture, Industrials/Manufacturing &amp; Retail, Alternative Energy, Extractives</t>
   </si>
+  <si>
+    <t xml:space="preserve">The mission of the Alliance for Water Stewardship (AWS) is "to promote responsible use of freshwater that is socially and economically beneficial as well as environmentally sustainable." </t>
+  </si>
+  <si>
+    <t>The Wildlife Friendly Enterprise Network (WFEN) "works to ensure wildlife conservation through the promotion and certification of responsible production practices, tourism, enterprise development, education and branding...We advocate for the production of high quality goods and services that deliver measurable improvements for wildlife in wild places and on private farm and ranchlands in between."</t>
+  </si>
+  <si>
+    <t>The mission of Equitable Origin is "to protect people and the environment by ensuring that energy development is conducted under the highest social and environmental standards...where the world’s energy needs are met through development activity that is transparent and accountable, creates benefits for all stakeholders, and ensures environmental stewardship and the health, safety, and prosperity of affected local communities."</t>
+  </si>
+  <si>
+    <t>The mission of the Initiative for Responsible Mining Assistance is "to establish a multi-stakeholder and independently verified responsible mining assurance system that improves social and environmental performance."</t>
+  </si>
 </sst>
 </file>
 
@@ -630,7 +630,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,6 +658,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFBE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -716,6 +722,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1003,8 +1012,8 @@
   <dimension ref="B1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1026,7 +1035,7 @@
         <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>40</v>
@@ -1064,7 +1073,7 @@
     </row>
     <row r="2" spans="2:15" ht="144" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>51</v>
@@ -1154,11 +1163,11 @@
         <v>59</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="G4" s="5">
         <v>2008</v>
@@ -1193,14 +1202,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G5" s="5">
         <v>2011</v>
@@ -1235,16 +1244,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="G6" s="5">
         <v>2005</v>
@@ -1283,10 +1292,10 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="G7" s="5">
         <v>2008</v>
@@ -1304,7 +1313,7 @@
         <v>54</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>55</v>
@@ -1318,17 +1327,17 @@
     </row>
     <row r="8" spans="2:15" ht="96" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="G8" s="5">
         <v>2012</v>
@@ -1367,10 +1376,10 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="G9" s="5">
         <v>2007</v>
@@ -1382,7 +1391,7 @@
         <v>54</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>55</v>
@@ -1402,17 +1411,17 @@
     </row>
     <row r="10" spans="2:15" ht="160" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="G10" s="5">
         <v>2002</v>
@@ -1451,10 +1460,10 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="5">
         <v>2015</v>
@@ -1492,11 +1501,11 @@
         <v>56</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>164</v>
+      <c r="E12" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="5">
         <v>2009</v>
@@ -1517,7 +1526,7 @@
         <v>54</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>54</v>
@@ -1531,16 +1540,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="G13" s="5">
         <v>1998</v>
@@ -1579,10 +1588,10 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="G14" s="5">
         <v>2009</v>
@@ -1597,7 +1606,7 @@
         <v>54</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>54</v>
@@ -1621,10 +1630,10 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="G15" s="5">
         <v>1999</v>
@@ -1663,10 +1672,10 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G16" s="5">
         <v>2006</v>
@@ -1705,14 +1714,14 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="H17" s="5" t="s">
         <v>55</v>
       </c>
@@ -1726,7 +1735,7 @@
         <v>54</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>54</v>
@@ -1743,16 +1752,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="G18" s="5">
         <v>1997</v>
@@ -1764,7 +1773,7 @@
         <v>54</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>54</v>
@@ -1791,13 +1800,13 @@
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>54</v>
@@ -1833,13 +1842,13 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>54</v>
@@ -1871,14 +1880,14 @@
         <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="G21" s="5">
         <v>1993</v>
@@ -1917,13 +1926,13 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>54</v>
@@ -1955,14 +1964,14 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="G23" s="5">
         <v>2008</v>
@@ -1997,16 +2006,16 @@
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="G24" s="5">
         <v>1997</v>
@@ -2041,14 +2050,14 @@
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="G25" s="5">
         <v>2007</v>
@@ -2087,10 +2096,10 @@
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="G26" s="5">
         <v>1994</v>
@@ -2125,19 +2134,19 @@
         <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="G27" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>54</v>
@@ -2158,7 +2167,7 @@
         <v>55</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>54</v>
@@ -2169,14 +2178,14 @@
         <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="G28" s="5">
         <v>2006</v>
@@ -2208,17 +2217,17 @@
     </row>
     <row r="29" spans="2:15" ht="128" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G29" s="5">
         <v>2010</v>
@@ -2233,7 +2242,7 @@
         <v>54</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>54</v>
@@ -2257,10 +2266,10 @@
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="G30" s="5">
         <v>2004</v>
@@ -2275,7 +2284,7 @@
         <v>54</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>54</v>
@@ -2290,7 +2299,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" ht="96" x14ac:dyDescent="0.2">
       <c r="B31" s="10" t="s">
         <v>25</v>
       </c>
@@ -2298,11 +2307,11 @@
         <v>56</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="5" t="s">
-        <v>126</v>
+      <c r="E31" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G31" s="5">
         <v>2006</v>
@@ -2323,7 +2332,7 @@
         <v>54</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>55</v>
@@ -2341,10 +2350,10 @@
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G32" s="5">
         <v>2009</v>
@@ -2379,16 +2388,16 @@
         <v>27</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="F33" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G33" s="5">
         <v>2010</v>
@@ -2406,7 +2415,7 @@
         <v>54</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>55</v>
@@ -2427,10 +2436,10 @@
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G34" s="5">
         <v>1998</v>
@@ -2469,10 +2478,10 @@
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G35" s="5">
         <v>1997</v>
@@ -2504,17 +2513,17 @@
     </row>
     <row r="36" spans="2:15" ht="112" x14ac:dyDescent="0.2">
       <c r="B36" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G36" s="5">
         <v>1999</v>
@@ -2549,16 +2558,16 @@
         <v>30</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G37" s="5">
         <v>1987</v>
@@ -2570,7 +2579,7 @@
         <v>54</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>54</v>
@@ -2597,10 +2606,10 @@
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G38" s="5">
         <v>2006</v>
@@ -2632,17 +2641,17 @@
     </row>
     <row r="39" spans="2:15" ht="192" x14ac:dyDescent="0.2">
       <c r="B39" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G39" s="5">
         <v>2007</v>
@@ -2681,10 +2690,10 @@
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G40" s="5">
         <v>2004</v>
@@ -2719,16 +2728,16 @@
         <v>33</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G41" s="5">
         <v>1997</v>
@@ -2763,14 +2772,14 @@
         <v>34</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G42" s="5">
         <v>1994</v>
@@ -2805,19 +2814,19 @@
         <v>35</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>54</v>
@@ -2846,26 +2855,26 @@
     </row>
     <row r="44" spans="2:15" ht="96" x14ac:dyDescent="0.2">
       <c r="B44" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>54</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>54</v>
@@ -2895,10 +2904,10 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G45" s="5">
         <v>2000</v>
@@ -2936,11 +2945,11 @@
         <v>59</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="5" t="s">
-        <v>156</v>
+      <c r="E46" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G46" s="5">
         <v>2007</v>
@@ -2972,17 +2981,17 @@
     </row>
     <row r="47" spans="2:15" ht="112" x14ac:dyDescent="0.2">
       <c r="B47" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G47" s="5">
         <v>2000</v>
@@ -3000,7 +3009,7 @@
         <v>54</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M47" s="9" t="s">
         <v>55</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madelinescomputer/Dropbox/MSI/Current Projects/Mapping Project/3 - Mapping Results/2016-09 Data Visualization/For Ben/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bisaacs/projects/msi-map-microsite/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -716,31 +716,19 @@
     <t>No*</t>
   </si>
   <si>
-    <t>Alliance for Water Stewardship*</t>
-  </si>
-  <si>
     <t>Website</t>
   </si>
   <si>
-    <t>Better Biomass*</t>
-  </si>
-  <si>
     <t>Yes*</t>
   </si>
   <si>
     <t>External Complaints Mechanisms</t>
   </si>
   <si>
-    <t xml:space="preserve">Rainforest Alliance* </t>
-  </si>
-  <si>
     <t>Civil Society (5), Other (1)</t>
   </si>
   <si>
     <t>Human Rights/Enviro Law Reference</t>
-  </si>
-  <si>
-    <t>Green-e*</t>
   </si>
   <si>
     <r>
@@ -784,6 +772,18 @@
   </si>
   <si>
     <t xml:space="preserve">Government (2), Industry (3), Civil Society (4), Other (1) </t>
+  </si>
+  <si>
+    <t>Rainforest Alliance</t>
+  </si>
+  <si>
+    <t>Alliance for Water Stewardship</t>
+  </si>
+  <si>
+    <t>Better Biomass</t>
+  </si>
+  <si>
+    <t>Green-e</t>
   </si>
 </sst>
 </file>
@@ -1276,8 +1276,8 @@
   <dimension ref="B1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1299,7 +1299,7 @@
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>184</v>
@@ -1320,7 +1320,7 @@
         <v>38</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>39</v>
@@ -1329,7 +1329,7 @@
         <v>40</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>41</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="3" spans="2:14" ht="144" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>138</v>
@@ -1390,7 +1390,7 @@
         <v>134</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G3" s="4">
         <v>2008</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="4" spans="2:14" ht="144" x14ac:dyDescent="0.2">
       <c r="B4" s="20" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>139</v>
@@ -1733,10 +1733,10 @@
         <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>42</v>
@@ -2128,7 +2128,7 @@
         <v>79</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>80</v>
@@ -2251,7 +2251,7 @@
         <v>85</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G24" s="4">
         <v>2007</v>
@@ -2292,7 +2292,7 @@
         <v>86</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G25" s="4">
         <v>1994</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="26" spans="2:14" ht="400" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>161</v>
@@ -2512,10 +2512,10 @@
         <v>42</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M30" s="10" t="s">
         <v>43</v>
@@ -2538,7 +2538,7 @@
         <v>96</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G31" s="4">
         <v>2009</v>
@@ -2573,7 +2573,7 @@
         <v>169</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>98</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="36" spans="2:14" ht="128" x14ac:dyDescent="0.2">
       <c r="B36" s="20" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>173</v>
@@ -2904,10 +2904,10 @@
         <v>193</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G40" s="4">
         <v>1997</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bisaacs/projects/msi-map-microsite/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madelinescomputer/Dropbox/MSI/Current Projects/Mapping Project/3 - Mapping Results/2016-07 Data review/Summary Data Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="460" windowWidth="25540" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="1180" yWindow="620" windowWidth="25540" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,30 +26,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Microsoft Office User</author>
-  </authors>
-  <commentList>
-    <comment ref="J35" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>No, but does cite to UNEP definition of "conflict timber."</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="211">
   <si>
     <t xml:space="preserve">Alliance for Responsible Mining </t>
   </si>
@@ -307,9 +285,6 @@
   </si>
   <si>
     <t>The mission of the Global Sustainable Tourism Council is "to develop, promote, and encourage the implementation of credible standards and best practices so that travel and tourism remains the major economic engine it already is, all over the world, in harmony with communities and the environment."</t>
-  </si>
-  <si>
-    <t>"GoodWeave® aims to stop child labor in the carpet industry and to replicate its market-based approach in other sectors."</t>
   </si>
   <si>
     <t>"The mission of the Green-e program...is to: bolster customer confidence in the reliability of retail electricity products reflecting renewable energy generation; expand the retail market for electricity products incorporating renewable energy, including expanding the demand for new renewable energy generation; provide customers clear information about retail clean energy products to enable them to make informed purchasing decisions; encourage the deployment of electricity products that minimize air pollution and reduce greenhouse gas emissions."</t>
@@ -547,9 +522,6 @@
     <t>http://foodalliance.org/</t>
   </si>
   <si>
-    <t>https://us.fsc.org/en-us</t>
-  </si>
-  <si>
     <t>http://www.globalcoffeeplatform.org/</t>
   </si>
   <si>
@@ -710,16 +682,7 @@
     <t>Mining and Energy ; Agriculture, Forestry and Fishing ; Consumer Goods</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>No*</t>
-  </si>
-  <si>
     <t>Website</t>
-  </si>
-  <si>
-    <t>Yes*</t>
   </si>
   <si>
     <t>External Complaints Mechanisms</t>
@@ -774,23 +737,29 @@
     <t xml:space="preserve">Government (2), Industry (3), Civil Society (4), Other (1) </t>
   </si>
   <si>
+    <t>Alliance for Water Stewardship</t>
+  </si>
+  <si>
+    <t>Better Biomass</t>
+  </si>
+  <si>
+    <t>Green-e</t>
+  </si>
+  <si>
     <t>Rainforest Alliance</t>
   </si>
   <si>
-    <t>Alliance for Water Stewardship</t>
-  </si>
-  <si>
-    <t>Better Biomass</t>
-  </si>
-  <si>
-    <t>Green-e</t>
+    <t>https://ic.fsc.org/en/what-is-fsc</t>
+  </si>
+  <si>
+    <t>"GoodWeave aims to stop child labor in the carpet industry and to replicate its market-based approach in other sectors."</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -845,11 +814,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -1272,12 +1236,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1299,10 +1263,10 @@
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>34</v>
@@ -1320,7 +1284,7 @@
         <v>38</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>39</v>
@@ -1329,7 +1293,7 @@
         <v>40</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>41</v>
@@ -1340,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>44</v>
@@ -1378,19 +1342,19 @@
     </row>
     <row r="3" spans="2:14" ht="144" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G3" s="4">
         <v>2008</v>
@@ -1419,13 +1383,13 @@
     </row>
     <row r="4" spans="2:14" ht="144" x14ac:dyDescent="0.2">
       <c r="B4" s="20" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>46</v>
@@ -1463,10 +1427,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>48</v>
@@ -1504,10 +1468,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>50</v>
@@ -1545,10 +1509,10 @@
         <v>52</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>53</v>
@@ -1586,10 +1550,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>55</v>
@@ -1624,13 +1588,13 @@
     </row>
     <row r="9" spans="2:14" ht="256" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>57</v>
@@ -1668,13 +1632,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>59</v>
@@ -1709,13 +1673,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>60</v>
@@ -1733,10 +1697,10 @@
         <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>42</v>
@@ -1750,10 +1714,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>61</v>
@@ -1791,10 +1755,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>63</v>
@@ -1832,10 +1796,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>65</v>
@@ -1873,16 +1837,16 @@
         <v>9</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="G15" s="4">
         <v>2006</v>
@@ -1914,13 +1878,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>67</v>
@@ -1955,10 +1919,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>69</v>
@@ -1996,10 +1960,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>71</v>
@@ -2037,10 +2001,10 @@
         <v>13</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>74</v>
@@ -2077,11 +2041,11 @@
       <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>155</v>
+      <c r="C20" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>77</v>
@@ -2119,16 +2083,16 @@
         <v>15</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>80</v>
@@ -2160,10 +2124,10 @@
         <v>16</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>81</v>
@@ -2201,10 +2165,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>83</v>
@@ -2242,16 +2206,16 @@
         <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G24" s="4">
         <v>2007</v>
@@ -2283,16 +2247,16 @@
         <v>19</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G25" s="4">
         <v>1994</v>
@@ -2321,19 +2285,19 @@
     </row>
     <row r="26" spans="2:14" ht="400" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>68</v>
@@ -2365,16 +2329,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="G27" s="4">
         <v>2006</v>
@@ -2403,19 +2367,19 @@
     </row>
     <row r="28" spans="2:14" ht="240" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="G28" s="4">
         <v>2010</v>
@@ -2436,7 +2400,7 @@
         <v>43</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>42</v>
@@ -2447,16 +2411,16 @@
         <v>21</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="G29" s="4">
         <v>2004</v>
@@ -2485,19 +2449,19 @@
     </row>
     <row r="30" spans="2:14" ht="176" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>167</v>
-      </c>
       <c r="F30" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G30" s="4">
         <v>2006</v>
@@ -2512,10 +2476,10 @@
         <v>42</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="M30" s="10" t="s">
         <v>43</v>
@@ -2529,16 +2493,16 @@
         <v>22</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G31" s="4">
         <v>2009</v>
@@ -2570,16 +2534,16 @@
         <v>23</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G32" s="4">
         <v>2010</v>
@@ -2611,16 +2575,16 @@
         <v>24</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="G33" s="4">
         <v>1998</v>
@@ -2652,16 +2616,16 @@
         <v>25</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="G34" s="4">
         <v>1997</v>
@@ -2690,19 +2654,19 @@
     </row>
     <row r="35" spans="2:14" ht="208" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="G35" s="4">
         <v>1999</v>
@@ -2731,19 +2695,19 @@
     </row>
     <row r="36" spans="2:14" ht="128" x14ac:dyDescent="0.2">
       <c r="B36" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="G36" s="15">
         <v>1992</v>
@@ -2775,16 +2739,16 @@
         <v>26</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="G37" s="4">
         <v>2006</v>
@@ -2813,19 +2777,19 @@
     </row>
     <row r="38" spans="2:14" ht="336" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="G38" s="4">
         <v>2007</v>
@@ -2857,16 +2821,16 @@
         <v>27</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="G39" s="4">
         <v>2004</v>
@@ -2898,16 +2862,16 @@
         <v>28</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G40" s="4">
         <v>1997</v>
@@ -2939,16 +2903,16 @@
         <v>29</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G41" s="4">
         <v>1994</v>
@@ -2980,16 +2944,16 @@
         <v>30</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>68</v>
@@ -3018,19 +2982,19 @@
     </row>
     <row r="43" spans="2:14" ht="176" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>68</v>
@@ -3062,16 +3026,16 @@
         <v>31</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G44" s="4">
         <v>2000</v>
@@ -3103,16 +3067,16 @@
         <v>32</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G45" s="4">
         <v>2007</v>
@@ -3141,19 +3105,19 @@
     </row>
     <row r="46" spans="2:14" ht="192" x14ac:dyDescent="0.2">
       <c r="B46" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>185</v>
-      </c>
       <c r="E46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="G46" s="4">
         <v>2000</v>
@@ -3180,74 +3144,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H47">
-        <f t="shared" ref="H47:N47" si="0">COUNTIF((H2:H46), "Yes")</f>
-        <v>22</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="K47">
-        <f>COUNTIF((K2:K46), "Yes")+2</f>
-        <v>41</v>
-      </c>
-      <c r="L47">
-        <f>COUNTIF((L2:L46), "Yes")+2</f>
-        <v>15</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="G48" t="s">
-        <v>196</v>
-      </c>
-      <c r="H48" s="6">
-        <f t="shared" ref="H48:N48" si="1">H47/45</f>
-        <v>0.48888888888888887</v>
-      </c>
-      <c r="I48" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J48" s="6">
-        <f t="shared" si="1"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="K48" s="6">
-        <f t="shared" si="1"/>
-        <v>0.91111111111111109</v>
-      </c>
-      <c r="L48" s="6">
-        <f>L47/45</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M48" s="6">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="N48" s="6">
-        <f t="shared" si="1"/>
-        <v>0.77777777777777779</v>
-      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
     </row>
     <row r="49" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L49" s="6">
-        <f>L47/K47</f>
-        <v>0.36585365853658536</v>
-      </c>
+      <c r="L49" s="6"/>
     </row>
     <row r="52" spans="12:14" x14ac:dyDescent="0.2">
       <c r="N52" s="9"/>
@@ -3258,6 +3165,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>